--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H2">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>19.934050246474</v>
+        <v>6.01282458448</v>
       </c>
       <c r="R2">
-        <v>179.406452218266</v>
+        <v>54.11542126032001</v>
       </c>
       <c r="S2">
-        <v>0.006094906857789452</v>
+        <v>0.001724544276655617</v>
       </c>
       <c r="T2">
-        <v>0.006094906857789452</v>
+        <v>0.001724544276655618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H3">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>650.4820360643454</v>
+        <v>712.4431372236427</v>
       </c>
       <c r="R3">
-        <v>5854.338324579108</v>
+        <v>6411.988235012784</v>
       </c>
       <c r="S3">
-        <v>0.1988871992122475</v>
+        <v>0.2043365339333046</v>
       </c>
       <c r="T3">
-        <v>0.1988871992122475</v>
+        <v>0.2043365339333046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H4">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>225.3028964397423</v>
+        <v>240.5954163086747</v>
       </c>
       <c r="R4">
-        <v>2027.726067957681</v>
+        <v>2165.358746778072</v>
       </c>
       <c r="S4">
-        <v>0.06888716300057027</v>
+        <v>0.06900541373777384</v>
       </c>
       <c r="T4">
-        <v>0.06888716300057027</v>
+        <v>0.06900541373777386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H5">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>1.77567638703</v>
+        <v>1.616698924078667</v>
       </c>
       <c r="R5">
-        <v>15.98108748327</v>
+        <v>14.550290316708</v>
       </c>
       <c r="S5">
-        <v>0.0005429193793889568</v>
+        <v>0.0004636870471477886</v>
       </c>
       <c r="T5">
-        <v>0.0005429193793889568</v>
+        <v>0.0004636870471477887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J6">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>35.92276036962933</v>
+        <v>9.893222733706665</v>
       </c>
       <c r="R6">
-        <v>323.304843326664</v>
+        <v>89.03900460335998</v>
       </c>
       <c r="S6">
-        <v>0.01098351192158296</v>
+        <v>0.002837485179117123</v>
       </c>
       <c r="T6">
-        <v>0.01098351192158296</v>
+        <v>0.002837485179117123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J7">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
         <v>1172.220899283692</v>
@@ -883,10 +883,10 @@
         <v>10549.98809355323</v>
       </c>
       <c r="S7">
-        <v>0.3584107148095532</v>
+        <v>0.3362058570698549</v>
       </c>
       <c r="T7">
-        <v>0.3584107148095532</v>
+        <v>0.3362058570698549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J8">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>406.0139238798138</v>
+        <v>395.8645406676951</v>
       </c>
       <c r="R8">
-        <v>3654.125314918324</v>
+        <v>3562.780866009256</v>
       </c>
       <c r="S8">
-        <v>0.1241402032409746</v>
+        <v>0.1135383077200511</v>
       </c>
       <c r="T8">
-        <v>0.1241402032409746</v>
+        <v>0.1135383077200511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J9">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>3.19991153612</v>
+        <v>2.660041437187112</v>
       </c>
       <c r="R9">
-        <v>28.79920382508</v>
+        <v>23.940372934684</v>
       </c>
       <c r="S9">
-        <v>0.0009783843486231381</v>
+        <v>0.0007629291644410311</v>
       </c>
       <c r="T9">
-        <v>0.0009783843486231378</v>
+        <v>0.0007629291644410312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H10">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>12.265703139904</v>
+        <v>4.307154684093333</v>
       </c>
       <c r="R10">
-        <v>110.391328259136</v>
+        <v>38.76439215684</v>
       </c>
       <c r="S10">
-        <v>0.003750282419210517</v>
+        <v>0.001235339374159702</v>
       </c>
       <c r="T10">
-        <v>0.003750282419210517</v>
+        <v>0.001235339374159702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H11">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>400.2507996896854</v>
+        <v>510.3429765045008</v>
       </c>
       <c r="R11">
-        <v>3602.257197207169</v>
+        <v>4593.086788540508</v>
       </c>
       <c r="S11">
-        <v>0.122378107494531</v>
+        <v>0.1463719832329588</v>
       </c>
       <c r="T11">
-        <v>0.1223781074945309</v>
+        <v>0.1463719832329589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H12">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>138.6320597229974</v>
+        <v>172.3452363802682</v>
       </c>
       <c r="R12">
-        <v>1247.688537506976</v>
+        <v>1551.107127422414</v>
       </c>
       <c r="S12">
-        <v>0.0423872459970663</v>
+        <v>0.04943051087430899</v>
       </c>
       <c r="T12">
-        <v>0.04238724599706629</v>
+        <v>0.049430510874309</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H13">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>1.09259880288</v>
+        <v>1.158086727091223</v>
       </c>
       <c r="R13">
-        <v>9.833389225920001</v>
+        <v>10.422780543821</v>
       </c>
       <c r="S13">
-        <v>0.0003340659752607866</v>
+        <v>0.000332152020903953</v>
       </c>
       <c r="T13">
-        <v>0.0003340659752607865</v>
+        <v>0.0003321520209039531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H14">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I14">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J14">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>4.520215268058667</v>
+        <v>1.609542084826667</v>
       </c>
       <c r="R14">
-        <v>40.681937412528</v>
+        <v>14.48587876344</v>
       </c>
       <c r="S14">
-        <v>0.001382071916912547</v>
+        <v>0.0004616343868718113</v>
       </c>
       <c r="T14">
-        <v>0.001382071916912547</v>
+        <v>0.0004616343868718114</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H15">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I15">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J15">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>147.5023286617849</v>
+        <v>190.7102388064365</v>
       </c>
       <c r="R15">
-        <v>1327.520957956064</v>
+        <v>1716.392149257928</v>
       </c>
       <c r="S15">
-        <v>0.04509936231647892</v>
+        <v>0.0546977957218602</v>
       </c>
       <c r="T15">
-        <v>0.04509936231647891</v>
+        <v>0.0546977957218602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H16">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I16">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J16">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>51.08934611042756</v>
+        <v>64.40374943994711</v>
       </c>
       <c r="R16">
-        <v>459.804114993848</v>
+        <v>579.6337449595239</v>
       </c>
       <c r="S16">
-        <v>0.01562074952748264</v>
+        <v>0.01847170426000853</v>
       </c>
       <c r="T16">
-        <v>0.01562074952748263</v>
+        <v>0.01847170426000853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H17">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I17">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J17">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>0.4026497082400001</v>
+        <v>0.4327658191651112</v>
       </c>
       <c r="R17">
-        <v>3.623847374160001</v>
+        <v>3.894892372486001</v>
       </c>
       <c r="S17">
-        <v>0.0001231115823274796</v>
+        <v>0.0001241220005818473</v>
       </c>
       <c r="T17">
-        <v>0.0001231115823274796</v>
+        <v>0.0001241220005818473</v>
       </c>
     </row>
   </sheetData>
